--- a/conditions/schedules/train_x_first/red_square_00/top_left/inputTrain_3.3.xlsx
+++ b/conditions/schedules/train_x_first/red_square_00/top_left/inputTrain_3.3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\45040\gcasa\g-casa_children_task\conditions\schedules\train_x_first\x_increasing_steps\bottom_left\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\45040\Dropbox\PC (2)\Downloads\g-casa_children_task-master\g-casa_children_task-master\conditions\schedules\train_x_first\red_square_00\top_left\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF8CFE0-7DA5-452C-9288-87EEDD085AEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F25F0A01-5389-4186-AA01-73A8082244A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="12980" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>trialTrain</t>
   </si>
@@ -405,9 +405,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -448,28 +450,28 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
         <v>2</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
       <c r="G2">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="H2">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J2" t="s">
         <v>10</v>
@@ -480,28 +482,28 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>7</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="H3">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J3" t="s">
         <v>10</v>
@@ -512,28 +514,28 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+      <c r="E4">
         <v>7</v>
       </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
       <c r="F4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G4">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="H4">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="I4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J4" t="s">
         <v>10</v>
@@ -544,30 +546,62 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5">
+        <v>9</v>
+      </c>
+      <c r="D5">
         <v>8</v>
-      </c>
-      <c r="D5">
-        <v>6</v>
       </c>
       <c r="E5">
         <v>7</v>
       </c>
       <c r="F5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G5">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="H5">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="I5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>-3</v>
+      </c>
+      <c r="H6">
+        <v>43</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6" t="s">
         <v>10</v>
       </c>
     </row>
